--- a/dna-methylation/routines/levine.xlsx
+++ b/dna-methylation/routines/levine.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\dna-methylation\dna-methylation\routines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\dna-methylation\dna-methylation\routines\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="12257"/>
   </bookViews>
   <sheets>
     <sheet name="L (долгожители)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Гаврилов Аркадий Сергеевич</t>
   </si>
@@ -112,19 +112,57 @@
   </si>
   <si>
     <t>Mean_red_cell_volume</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>F1-L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>F1-L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>F1-L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>F1L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>F1L13</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>F1L15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -154,19 +192,55 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D4D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE3F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,14 +284,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,22 +594,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="24" style="3"/>
+    <col min="1" max="1" width="24" style="3"/>
+    <col min="2" max="2" width="24" style="11"/>
+    <col min="3" max="16384" width="24" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -555,11 +649,11 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>92</v>
       </c>
       <c r="C2" s="7">
@@ -586,7 +680,7 @@
       <c r="J2" s="7">
         <v>164.9</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="10">
         <v>3.47</v>
       </c>
       <c r="M2" s="1"/>
@@ -611,11 +705,11 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>90</v>
       </c>
       <c r="C3" s="7">
@@ -642,7 +736,7 @@
       <c r="J3" s="7">
         <v>149.5</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="10">
         <v>5.07</v>
       </c>
       <c r="L3" s="9"/>
@@ -668,11 +762,11 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>61</v>
       </c>
       <c r="C4" s="7">
@@ -699,7 +793,7 @@
       <c r="J4" s="7">
         <v>141.69999999999999</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <v>3.07</v>
       </c>
       <c r="L4" s="1"/>
@@ -725,11 +819,11 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>28</v>
       </c>
       <c r="C5" s="7">
@@ -756,7 +850,7 @@
       <c r="J5" s="7">
         <v>103.9</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <v>3.4</v>
       </c>
       <c r="L5" s="1"/>
@@ -782,11 +876,11 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>32</v>
       </c>
       <c r="C6" s="7">
@@ -813,7 +907,7 @@
       <c r="J6" s="7">
         <v>100.1</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>4.76</v>
       </c>
       <c r="L6" s="1"/>
@@ -839,11 +933,11 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>68</v>
       </c>
       <c r="C7" s="7">
@@ -870,7 +964,7 @@
       <c r="J7" s="7">
         <v>77.599999999999994</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>4.68</v>
       </c>
       <c r="L7" s="1"/>
@@ -896,11 +990,11 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>37</v>
       </c>
       <c r="C8" s="7">
@@ -927,7 +1021,7 @@
       <c r="J8" s="7">
         <v>226.2</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="L8" s="1"/>
@@ -953,11 +1047,11 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>41</v>
       </c>
       <c r="C9" s="7">
@@ -984,7 +1078,7 @@
       <c r="J9" s="7">
         <v>118.6</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <v>4.33</v>
       </c>
       <c r="L9" s="1"/>
@@ -1010,11 +1104,11 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>15</v>
       </c>
       <c r="C10" s="7">
@@ -1041,7 +1135,7 @@
       <c r="J10" s="7">
         <v>177.1</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>5.69</v>
       </c>
       <c r="L10" s="1"/>
@@ -1067,11 +1161,11 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>91</v>
       </c>
       <c r="C11" s="7">
@@ -1098,7 +1192,7 @@
       <c r="J11" s="7">
         <v>79.2</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>5.57</v>
       </c>
       <c r="L11" s="1"/>
@@ -1123,11 +1217,11 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="10">
         <v>65</v>
       </c>
       <c r="C12" s="7">
@@ -1154,7 +1248,7 @@
       <c r="J12" s="7">
         <v>219.4</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>5.05</v>
       </c>
       <c r="L12" s="1"/>
@@ -1179,11 +1273,11 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>43</v>
       </c>
       <c r="C13" s="7">
@@ -1210,7 +1304,7 @@
       <c r="J13" s="7">
         <v>118.3</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <v>9.1</v>
       </c>
       <c r="L13" s="1"/>
@@ -1235,11 +1329,11 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10">
         <v>88</v>
       </c>
       <c r="C14" s="7">
@@ -1266,7 +1360,7 @@
       <c r="J14" s="7">
         <v>165.8</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <v>6.47</v>
       </c>
       <c r="L14" s="1"/>
@@ -1292,11 +1386,11 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>57</v>
       </c>
       <c r="C15" s="7">
@@ -1323,7 +1417,7 @@
       <c r="J15" s="7">
         <v>198</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>8.33</v>
       </c>
       <c r="L15" s="1"/>
@@ -1349,11 +1443,11 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>87</v>
       </c>
       <c r="C16" s="7">
@@ -1380,7 +1474,7 @@
       <c r="J16" s="7">
         <v>123.9</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <v>2.2200000000000002</v>
       </c>
       <c r="L16" s="1"/>
@@ -1406,11 +1500,11 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>63</v>
       </c>
       <c r="C17" s="7">
@@ -1437,7 +1531,7 @@
       <c r="J17" s="7">
         <v>208.3</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>2.41</v>
       </c>
       <c r="L17" s="1"/>
@@ -1463,11 +1557,11 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="10">
         <v>39</v>
       </c>
       <c r="C18" s="7">
@@ -1494,7 +1588,7 @@
       <c r="J18" s="7">
         <v>187.1</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <v>5.36</v>
       </c>
       <c r="L18" s="1"/>
@@ -1520,11 +1614,11 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="10">
         <v>96</v>
       </c>
       <c r="C19" s="7">
@@ -1551,7 +1645,7 @@
       <c r="J19" s="7">
         <v>106.2</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <v>4.72</v>
       </c>
       <c r="L19" s="1"/>
@@ -1577,11 +1671,11 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="10">
         <v>59</v>
       </c>
       <c r="C20" s="7">
@@ -1608,7 +1702,7 @@
       <c r="J20" s="7">
         <v>157.19999999999999</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="10">
         <v>6.14</v>
       </c>
       <c r="L20" s="1"/>
@@ -1634,11 +1728,11 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="10">
         <v>36</v>
       </c>
       <c r="C21" s="7">
@@ -1665,7 +1759,7 @@
       <c r="J21" s="7">
         <v>185.6</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="10">
         <v>3.84</v>
       </c>
       <c r="L21" s="1"/>
@@ -1691,18 +1785,40 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="10">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1">
+        <v>115.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="F22" s="1">
+        <v>189.7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>90</v>
+      </c>
+      <c r="I22" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="J22" s="1">
+        <v>167.4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5.13</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1725,18 +1841,40 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>75.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>166.2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>88</v>
+      </c>
+      <c r="I23" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>130.9</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5.44</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1759,18 +1897,40 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="10">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="F24" s="1">
+        <v>179.7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>31</v>
+      </c>
+      <c r="H24" s="1">
+        <v>93</v>
+      </c>
+      <c r="I24" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>115.4</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5.7</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1793,18 +1953,40 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="10">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>71.8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="F25" s="1">
+        <v>147.6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>94</v>
+      </c>
+      <c r="I25" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="J25" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8.17</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1827,18 +2009,40 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="10">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>62.7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F26" s="1">
+        <v>140.9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>64</v>
+      </c>
+      <c r="I26" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="J26" s="1">
+        <v>173.5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>12.6</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1862,18 +2066,40 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="F27" s="1">
+        <v>141.9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>79</v>
+      </c>
+      <c r="I27" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>203.8</v>
+      </c>
+      <c r="K27" s="1">
+        <v>6</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1897,15 +2123,40 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D28" s="1">
+        <v>67</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="F28" s="1">
+        <v>264.8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H28" s="1">
+        <v>112</v>
+      </c>
+      <c r="I28" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>264</v>
+      </c>
+      <c r="K28" s="3">
+        <v>9.9499999999999993</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1928,8 +2179,215 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="11">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3">
+        <v>35.1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.95</v>
+      </c>
+      <c r="F29" s="3">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="G29" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="H29" s="3">
+        <v>109</v>
+      </c>
+      <c r="I29" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="K29" s="3">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="11">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3">
+        <v>61.3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="F30" s="3">
+        <v>107</v>
+      </c>
+      <c r="G30" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>101</v>
+      </c>
+      <c r="I30" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>151</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="11">
+        <v>94</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="D31" s="3">
+        <v>51.7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>120</v>
+      </c>
+      <c r="G31" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>112</v>
+      </c>
+      <c r="I31" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="J31" s="3">
+        <v>210</v>
+      </c>
+      <c r="K31" s="3">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>46.1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7.24</v>
+      </c>
+      <c r="F32" s="3">
+        <v>67.2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="H32" s="3">
+        <v>109</v>
+      </c>
+      <c r="I32" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J32" s="3">
+        <v>246</v>
+      </c>
+      <c r="K32" s="3">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="11">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3">
+        <v>36.6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>62.9</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5.33</v>
+      </c>
+      <c r="F33" s="3">
+        <v>214</v>
+      </c>
+      <c r="G33" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H33" s="3">
+        <v>106</v>
+      </c>
+      <c r="I33" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J33" s="3">
+        <v>324</v>
+      </c>
+      <c r="K33" s="3">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="11">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8.35</v>
+      </c>
+      <c r="F34" s="3">
+        <v>137.9</v>
+      </c>
+      <c r="G34" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="H34" s="3">
+        <v>106</v>
+      </c>
+      <c r="I34" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="J34" s="3">
+        <v>181</v>
+      </c>
+      <c r="K34" s="3">
+        <v>11.49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dna-methylation/routines/levine.xlsx
+++ b/dna-methylation/routines/levine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Гаврилов Аркадий Сергеевич</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>F1L15</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>MQ1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>MQ2</t>
+  </si>
+  <si>
+    <t>SQ2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>MQ3</t>
   </si>
 </sst>
 </file>
@@ -160,7 +181,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -255,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,7 +296,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -310,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,17 +618,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B35" sqref="B35:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="3"/>
-    <col min="2" max="2" width="24" style="11"/>
-    <col min="3" max="16384" width="24" style="3"/>
+    <col min="2" max="3" width="24" style="11"/>
+    <col min="4" max="16384" width="24" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -614,7 +638,7 @@
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -656,7 +680,7 @@
       <c r="B2" s="10">
         <v>92</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>44.4</v>
       </c>
       <c r="D2" s="7">
@@ -712,7 +736,7 @@
       <c r="B3" s="10">
         <v>90</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>46.5</v>
       </c>
       <c r="D3" s="7">
@@ -769,7 +793,7 @@
       <c r="B4" s="10">
         <v>61</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>40.799999999999997</v>
       </c>
       <c r="D4" s="7">
@@ -826,7 +850,7 @@
       <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>42.6</v>
       </c>
       <c r="D5" s="7">
@@ -883,7 +907,7 @@
       <c r="B6" s="10">
         <v>32</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>46</v>
       </c>
       <c r="D6" s="7">
@@ -940,7 +964,7 @@
       <c r="B7" s="10">
         <v>68</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>39.700000000000003</v>
       </c>
       <c r="D7" s="7">
@@ -997,7 +1021,7 @@
       <c r="B8" s="10">
         <v>37</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>52.2</v>
       </c>
       <c r="D8" s="7">
@@ -1054,7 +1078,7 @@
       <c r="B9" s="10">
         <v>41</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>58.5</v>
       </c>
       <c r="D9" s="7">
@@ -1111,7 +1135,7 @@
       <c r="B10" s="10">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>42.9</v>
       </c>
       <c r="D10" s="7">
@@ -1168,7 +1192,7 @@
       <c r="B11" s="10">
         <v>91</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>40.9</v>
       </c>
       <c r="D11" s="7">
@@ -1224,7 +1248,7 @@
       <c r="B12" s="10">
         <v>65</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>38.9</v>
       </c>
       <c r="D12" s="7">
@@ -1280,7 +1304,7 @@
       <c r="B13" s="10">
         <v>43</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>24.8</v>
       </c>
       <c r="D13" s="7">
@@ -1336,7 +1360,7 @@
       <c r="B14" s="10">
         <v>88</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>48.1</v>
       </c>
       <c r="D14" s="7">
@@ -1393,7 +1417,7 @@
       <c r="B15" s="10">
         <v>57</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>56.7</v>
       </c>
       <c r="D15" s="7">
@@ -1450,7 +1474,7 @@
       <c r="B16" s="10">
         <v>87</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="10">
         <v>42.1</v>
       </c>
       <c r="D16" s="7">
@@ -1507,7 +1531,7 @@
       <c r="B17" s="10">
         <v>63</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <v>57.9</v>
       </c>
       <c r="D17" s="7">
@@ -1564,7 +1588,7 @@
       <c r="B18" s="10">
         <v>39</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="10">
         <v>53.9</v>
       </c>
       <c r="D18" s="7">
@@ -1621,7 +1645,7 @@
       <c r="B19" s="10">
         <v>96</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="10">
         <v>23.8</v>
       </c>
       <c r="D19" s="7">
@@ -1678,7 +1702,7 @@
       <c r="B20" s="10">
         <v>59</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="10">
         <v>46.8</v>
       </c>
       <c r="D20" s="7">
@@ -1735,7 +1759,7 @@
       <c r="B21" s="10">
         <v>36</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="10">
         <v>50</v>
       </c>
       <c r="D21" s="7">
@@ -1792,7 +1816,7 @@
       <c r="B22" s="10">
         <v>93</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="10">
         <v>41</v>
       </c>
       <c r="D22" s="1">
@@ -1848,7 +1872,7 @@
       <c r="B23" s="10">
         <v>64</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="10">
         <v>34.4</v>
       </c>
       <c r="D23" s="1">
@@ -1904,7 +1928,7 @@
       <c r="B24" s="10">
         <v>94</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="10">
         <v>36.5</v>
       </c>
       <c r="D24" s="1">
@@ -1960,7 +1984,7 @@
       <c r="B25" s="10">
         <v>66</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="10">
         <v>35.1</v>
       </c>
       <c r="D25" s="1">
@@ -2016,7 +2040,7 @@
       <c r="B26" s="10">
         <v>91</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="10">
         <v>27.8</v>
       </c>
       <c r="D26" s="1">
@@ -2073,7 +2097,7 @@
       <c r="B27" s="10">
         <v>69</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="10">
         <v>26</v>
       </c>
       <c r="D27" s="1">
@@ -2130,7 +2154,7 @@
       <c r="B28" s="11">
         <v>0</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="10">
         <v>69.099999999999994</v>
       </c>
       <c r="D28" s="1">
@@ -2186,7 +2210,7 @@
       <c r="B29" s="11">
         <v>86</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="11">
         <v>35.1</v>
       </c>
       <c r="D29" s="3">
@@ -2221,7 +2245,7 @@
       <c r="B30" s="11">
         <v>32</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="11">
         <v>61.3</v>
       </c>
       <c r="D30" s="3">
@@ -2256,7 +2280,7 @@
       <c r="B31" s="11">
         <v>94</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="11">
         <v>45.6</v>
       </c>
       <c r="D31" s="3">
@@ -2291,7 +2315,7 @@
       <c r="B32" s="11">
         <v>0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="11">
         <v>48.1</v>
       </c>
       <c r="D32" s="3">
@@ -2326,7 +2350,7 @@
       <c r="B33" s="11">
         <v>91</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="11">
         <v>36.6</v>
       </c>
       <c r="D33" s="3">
@@ -2361,7 +2385,7 @@
       <c r="B34" s="11">
         <v>65</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="11">
         <v>18.7</v>
       </c>
       <c r="D34" s="3">
@@ -2387,6 +2411,251 @@
       </c>
       <c r="K34" s="3">
         <v>11.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
+      <c r="C35" s="11">
+        <v>60.4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="F35" s="3">
+        <v>82</v>
+      </c>
+      <c r="G35" s="3">
+        <v>53.3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>102</v>
+      </c>
+      <c r="I35" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="J35" s="3">
+        <v>445</v>
+      </c>
+      <c r="K35" s="3">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="11">
+        <v>46</v>
+      </c>
+      <c r="C36" s="11">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D36" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F36" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3">
+        <v>111</v>
+      </c>
+      <c r="I36" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>157</v>
+      </c>
+      <c r="K36" s="3">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="11">
+        <v>8</v>
+      </c>
+      <c r="C37" s="11">
+        <v>57</v>
+      </c>
+      <c r="D37" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5.64</v>
+      </c>
+      <c r="F37" s="3">
+        <v>89.5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>95</v>
+      </c>
+      <c r="I37" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="J37" s="3">
+        <v>501</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="11">
+        <v>45</v>
+      </c>
+      <c r="C38" s="11">
+        <v>62.6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.29</v>
+      </c>
+      <c r="F38" s="3">
+        <v>168.7</v>
+      </c>
+      <c r="G38" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="H38" s="3">
+        <v>108</v>
+      </c>
+      <c r="I38" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="J38" s="3">
+        <v>155</v>
+      </c>
+      <c r="K38" s="3">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="11">
+        <v>14</v>
+      </c>
+      <c r="C39" s="11">
+        <v>37</v>
+      </c>
+      <c r="D39" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4.37</v>
+      </c>
+      <c r="F39" s="3">
+        <v>103.1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>99</v>
+      </c>
+      <c r="I39" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="J39" s="3">
+        <v>397.9</v>
+      </c>
+      <c r="K39" s="3">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="11">
+        <v>5</v>
+      </c>
+      <c r="C40" s="11">
+        <v>27.9</v>
+      </c>
+      <c r="D40" s="3">
+        <v>87.3</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5.15</v>
+      </c>
+      <c r="F40" s="3">
+        <v>89</v>
+      </c>
+      <c r="G40" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="H40" s="3">
+        <v>101</v>
+      </c>
+      <c r="I40" s="3">
+        <v>13</v>
+      </c>
+      <c r="J40" s="3">
+        <v>402.6</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="11">
+        <v>43</v>
+      </c>
+      <c r="C41" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>88</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="F41" s="3">
+        <v>61</v>
+      </c>
+      <c r="G41" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>109</v>
+      </c>
+      <c r="I41" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="J41" s="3">
+        <v>179.2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>8.7100000000000009</v>
       </c>
     </row>
   </sheetData>
